--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292295.129219829</v>
+        <v>312263.9584770582</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216107</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484451</v>
+        <v>492028.934248444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8186514.67329327</v>
+        <v>8230706.595672499</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>243.8956844827744</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>20.99462631231668</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -871,19 +871,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.0665348042639</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559667</v>
+        <v>124.0607418520515</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,22 +1102,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>270.0173373818679</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>142.0902352657462</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>378.4804603970944</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>168.0018972297467</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645593836</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>386.415421463631</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>206.4855017772222</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>67.42894579208244</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.64034175572404</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>91.39226931002196</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.92574903168983</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>238.1835758754256</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218116</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>71.84692347866329</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>172.4933240080325</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659625</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>33.08339867820433</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907094</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>119.9348501475797</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>56.6761263967825</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630696</v>
       </c>
     </row>
     <row r="29">
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>198.6534743970088</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3269,7 +3269,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772995</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225726</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855482</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3503,7 +3503,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.76104808841</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571964</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3755,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,10 +3803,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="42">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571974</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932868</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,10 +3992,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,10 +4040,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="45">
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056504</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1380.761312584412</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035836</v>
+        <v>1346.659243808239</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>910.7494589826838</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>476.974714140979</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018677</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018677</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018677</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018677</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797687</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2050.508772920371</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1631.366309499682</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1627.12058983974</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.8429367339743</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018677</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064437</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>813.7361418590924</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>641.1744303423174</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>619.967737097553</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018677</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018677</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.94640621471</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512707</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.825591091162</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1750.392590344267</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1750.392590344267</v>
       </c>
       <c r="W4" t="n">
-        <v>1270.644793662241</v>
+        <v>1478.366185930559</v>
       </c>
       <c r="X4" t="n">
-        <v>1270.644793662241</v>
+        <v>1232.974431263971</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.00182921349</v>
+        <v>1005.55476057808</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1072.643441777775</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1907.229135963029</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1498.943012262683</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1970.777404779041</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.765608785789</v>
+        <v>1683.821896649472</v>
       </c>
       <c r="W7" t="n">
-        <v>1675.765608785789</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715258</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953531</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102017</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890094</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105257</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105257</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105257</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105257</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873485</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109474</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1534.877671982512</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1534.877671982512</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1172.260721916339</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>767.405267327372</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>348.2628039066827</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160295</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851274</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851274</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.161826571869</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729514</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955295</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925637</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925637</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925637</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789381</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.87917085155</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034973</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.826913209417</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.052168367713</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>776.1847387769203</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111516</v>
@@ -5045,10 +5045,10 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="N11" t="n">
         <v>2312.656441940404</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112633</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.46278304646</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457493</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036804</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336457</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111516</v>
@@ -5203,7 +5203,7 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
         <v>1335.767865365814</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2645.285540329286</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2399.406093907741</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2399.406093907741</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168566</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.51439535199</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526434</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847292</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>516.962436093937</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172001</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111516</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>498.7803825855946</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1573.840348838454</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2730.888184049005</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>3856.619167485452</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>4836.798834055758</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055758</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055758</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363476</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.38502577451</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653474</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1035.891962983371</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>863.3302514665961</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>697.4522586681189</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>527.6942549188561</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5443,7 +5443,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2696.298870390289</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2450.419423968744</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2171.986423221849</v>
+        <v>2067.685300879129</v>
       </c>
       <c r="V16" t="n">
-        <v>1885.03091509228</v>
+        <v>1780.729792749559</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.004510678571</v>
+        <v>1508.70338833585</v>
       </c>
       <c r="X16" t="n">
-        <v>1367.612756011984</v>
+        <v>1263.311633669263</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1035.891962983371</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689265</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D17" t="n">
         <v>1648.906137047132</v>
@@ -5501,64 +5501,64 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1607.050630386892</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2764.098465597443</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>3889.82944903389</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>4836.798834055758</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4836.798834055758</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055758</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1084.662814845622</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>912.101103328847</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>746.2231105303697</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>576.4651067811069</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F19" t="n">
-        <v>402.229425964913</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5680,7 +5680,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2308.274771460367</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>2021.319263330797</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1749.292858917089</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1503.901104250501</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1276.481433564609</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689266</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872689</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047134</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205429</v>
+        <v>944.8298656847319</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146351</v>
+        <v>516.9624360939397</v>
       </c>
       <c r="G20" t="n">
-        <v>385.866131237899</v>
+        <v>115.5646047172036</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111523</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111523</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2481.810506693465</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693465</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263771</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097167</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055761</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055761</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S20" t="n">
-        <v>4803.381259633333</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.381259633333</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884176</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295209</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.54408887452</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="21">
@@ -5811,25 +5811,25 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556036</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825573</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987189</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649028</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111523</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I21" t="n">
-        <v>96.77217639691919</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>421.3305013631315</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987278</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819528</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>467.7901097834755</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342127</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3250519959689</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111523</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111523</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111523</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J22" t="n">
         <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169407</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
         <v>876.2839981849017</v>
@@ -5938,22 +5938,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583903</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503607</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177149</v>
+        <v>998.048432817714</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439737</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6303,7 +6303,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>754.5060651663889</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>588.6280723679116</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6427,7 +6427,7 @@
         <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6540,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,16 +6707,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7120,13 +7120,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
         <v>1889.413325832886</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7333,10 +7333,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7354,22 +7354,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X40" t="n">
         <v>1371.99516675259</v>
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009656</v>
@@ -7397,13 +7397,13 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004229</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7412,40 +7412,40 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
@@ -7467,16 +7467,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7488,7 +7488,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K42" t="n">
         <v>1107.588885023173</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477103</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309356</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324583</v>
       </c>
       <c r="E43" t="n">
         <v>444.5591692831956</v>
       </c>
       <c r="F43" t="n">
-        <v>267.8521152449518</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7570,13 +7570,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745664</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N43" t="n">
         <v>1783.551532113124</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1144.575496066697</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>1021.773653488278</v>
       </c>
       <c r="M44" t="n">
-        <v>3603.973621145286</v>
+        <v>2178.821488698829</v>
       </c>
       <c r="N44" t="n">
-        <v>4397.389162827326</v>
+        <v>3304.552472135276</v>
       </c>
       <c r="O44" t="n">
-        <v>4397.389162827326</v>
+        <v>4284.732138705583</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827326</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.88794878592</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538977</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722814</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620723</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
         <v>501.9761240987146</v>
@@ -7719,10 +7719,10 @@
         <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312371</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
         <v>452.8828383974495</v>
@@ -7767,10 +7767,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626147</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418354</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831956</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F46" t="n">
-        <v>267.8521152449518</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707795</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354694</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773346</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854794</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281350964</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>290.2128107706658</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.9394033791872</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294876</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>406.1054605095752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>956.5347323453211</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807505</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949894473</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9951,10 +9951,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10188,10 +10188,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -11060,16 +11060,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>935.0031416802852</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>928.800821431817</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>801.4298400828689</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10.96843159933769</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>50.1445778789311</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>90.22000922290086</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.5985112554919</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.5985112554898</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>140.7232059832935</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>37.46509486400009</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>267.5985112554883</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>184.78315617749</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.446659489828857</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,13 +23938,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>268.0111327346197</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.73195639979703</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>44.28436272291283</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627256</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>44.28436272291282</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>139.5921776627242</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>686301.8100359484</v>
+        <v>699908.7812483106</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>686301.8100359484</v>
+        <v>703761.9129166827</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>688839.7367305628</v>
+        <v>703761.9129166827</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696891.5917023685</v>
+        <v>696891.5917023688</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696891.5917023686</v>
+        <v>696891.5917023688</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>726301.2132227931</v>
+        <v>726301.213222793</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>726301.213222793</v>
+        <v>726301.2132227931</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>726301.2132227931</v>
+        <v>726301.213222793</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726301.2132227931</v>
+        <v>726301.2132227932</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294881.0259397246</v>
+        <v>294881.0259397247</v>
       </c>
       <c r="C2" t="n">
         <v>294881.0259397246</v>
@@ -26326,7 +26326,7 @@
         <v>278038.143884422</v>
       </c>
       <c r="G2" t="n">
-        <v>278038.1438844219</v>
+        <v>278038.1438844221</v>
       </c>
       <c r="H2" t="n">
         <v>278038.1438844221</v>
@@ -26335,10 +26335,10 @@
         <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
+        <v>289771.6712755438</v>
+      </c>
+      <c r="K2" t="n">
         <v>289771.6712755437</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289771.6712755438</v>
       </c>
       <c r="L2" t="n">
         <v>289771.6712755438</v>
@@ -26347,7 +26347,7 @@
         <v>289771.6712755437</v>
       </c>
       <c r="N2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
         <v>289771.6712755437</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.256503903</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390657</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520273</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283934</v>
+        <v>18364.7156328394</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856133</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784507</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104676</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.54950216635802e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>182320.3813513282</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>206540.0080518356</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
+        <v>91036.59625752564</v>
+      </c>
+      <c r="F4" t="n">
         <v>91036.59625752567</v>
       </c>
-      <c r="F4" t="n">
-        <v>91036.59625752566</v>
-      </c>
       <c r="G4" t="n">
-        <v>91036.59625752566</v>
+        <v>91036.5962575257</v>
       </c>
       <c r="H4" t="n">
-        <v>91036.59625752571</v>
+        <v>91036.5962575257</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26445,19 +26445,19 @@
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="N4" t="n">
         <v>94878.44464875292</v>
-      </c>
-      <c r="N4" t="n">
-        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="P4" t="n">
-        <v>94878.44464875282</v>
+        <v>94878.44464875295</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814194</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764756</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579245</v>
+        <v>77718.23860579247</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-118828.1822944256</v>
+        <v>-164100.7481736484</v>
       </c>
       <c r="C6" t="n">
-        <v>23363.11836528435</v>
+        <v>29438.42173761727</v>
       </c>
       <c r="D6" t="n">
-        <v>15784.94026741676</v>
+        <v>46778.9661115239</v>
       </c>
       <c r="E6" t="n">
-        <v>-110317.0884027786</v>
+        <v>-48329.42841566233</v>
       </c>
       <c r="F6" t="n">
-        <v>113482.2053492488</v>
+        <v>113405.646794452</v>
       </c>
       <c r="G6" t="n">
-        <v>113482.2053492487</v>
+        <v>113405.6467944519</v>
       </c>
       <c r="H6" t="n">
-        <v>113482.2053492488</v>
+        <v>113405.6467944521</v>
       </c>
       <c r="I6" t="n">
-        <v>98810.27238815901</v>
+        <v>98787.04804877628</v>
       </c>
       <c r="J6" t="n">
-        <v>6160.522676008171</v>
+        <v>-43456.06580399758</v>
       </c>
       <c r="K6" t="n">
-        <v>117174.9880209984</v>
+        <v>103337.7551137706</v>
       </c>
       <c r="L6" t="n">
-        <v>108227.3769324885</v>
+        <v>117151.7636816158</v>
       </c>
       <c r="M6" t="n">
-        <v>-69615.99858946928</v>
+        <v>-17838.18093138768</v>
       </c>
       <c r="N6" t="n">
-        <v>117174.9880209984</v>
+        <v>117151.7636816157</v>
       </c>
       <c r="O6" t="n">
-        <v>117174.9880209984</v>
+        <v>117151.7636816156</v>
       </c>
       <c r="P6" t="n">
-        <v>117174.9880209985</v>
+        <v>117151.7636816156</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773346</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
         <v>1209.19970851394</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384744</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773346</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052234</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080501</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773346</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052234</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773346</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052234</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>178.1408902972843</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27439,7 +27439,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>143.2245865581758</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.07893917476892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>309.7003062363594</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>101.3319306324442</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>5.631333357557821</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>100.8476018541754</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>53.07022658020554</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>236.2013652335964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.750873913633</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.697685318346741e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="45">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,13 +34714,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773346</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854794</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281350964</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>290.2128107706658</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.9394033791872</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294876</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>406.1054605095752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,28 +35884,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>956.5347323453211</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807505</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949894473</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36525,13 +36525,13 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36671,10 +36671,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36908,10 +36908,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -37075,19 +37075,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37145,10 +37145,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37482,7 +37482,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.891691782153</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37719,7 +37719,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>935.0031416802852</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908075</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>928.800821431817</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>801.4298400828689</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
